--- a/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EB6CF08-114F-43AC-AA05-8D2E5ABA1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BF997C-2F70-4404-B735-229A78B7EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{598FD39A-A6B3-413E-8396-F5E04FEC4475}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{808AC286-16D9-44F4-98BB-E24E4FBFED15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>34,48%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>45,28%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>30,19%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,490 +134,484 @@
     <t>25,64%</t>
   </si>
   <si>
-    <t>22,36%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>33,46%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>31,24%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>5,25%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8674690-63E6-4E84-A9BE-930CD908DDD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527E02-20DC-4E69-B40D-C48FE0D27F6B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1527,7 +1521,7 @@
         <v>1128</v>
       </c>
       <c r="I11" s="7">
-        <v>791686</v>
+        <v>791685</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1731,7 +1725,7 @@
         <v>2913</v>
       </c>
       <c r="I15" s="7">
-        <v>2243999</v>
+        <v>2243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1772,13 +1766,13 @@
         <v>205810</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -1787,13 +1781,13 @@
         <v>203290</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>533</v>
@@ -1802,13 +1796,13 @@
         <v>409101</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1817,13 @@
         <v>249182</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -1838,13 +1832,13 @@
         <v>300064</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -1853,13 +1847,13 @@
         <v>549246</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1868,13 @@
         <v>180398</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>234</v>
@@ -1889,13 +1883,13 @@
         <v>181583</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>402</v>
@@ -1904,13 +1898,13 @@
         <v>361981</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1919,13 @@
         <v>29956</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -1940,13 +1934,13 @@
         <v>24042</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -1955,13 +1949,13 @@
         <v>53998</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1970,13 @@
         <v>6814</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1991,13 +1985,13 @@
         <v>4907</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -2006,13 +2000,13 @@
         <v>11721</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,28 +2074,28 @@
         <v>859518</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1739</v>
       </c>
       <c r="I22" s="7">
-        <v>1180458</v>
+        <v>1180459</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>2727</v>
@@ -2110,13 +2104,13 @@
         <v>2039977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2125,13 @@
         <v>1063214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>1938</v>
@@ -2146,13 +2140,13 @@
         <v>1319138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>3054</v>
@@ -2161,13 +2155,13 @@
         <v>2382352</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2176,13 @@
         <v>1072694</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>1391</v>
@@ -2197,13 +2191,13 @@
         <v>1060875</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>2380</v>
@@ -2212,13 +2206,13 @@
         <v>2133569</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2227,13 @@
         <v>238016</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>211</v>
@@ -2248,13 +2242,13 @@
         <v>180206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>406</v>
@@ -2263,13 +2257,13 @@
         <v>418222</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2278,13 @@
         <v>138851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -2299,13 +2293,13 @@
         <v>50135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -2314,13 +2308,13 @@
         <v>188986</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,7 +2341,7 @@
         <v>5338</v>
       </c>
       <c r="I27" s="7">
-        <v>3790812</v>
+        <v>3790813</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2376,7 +2370,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BF997C-2F70-4404-B735-229A78B7EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{302E9634-3CA6-4712-9B37-5E44B12BA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{808AC286-16D9-44F4-98BB-E24E4FBFED15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64D2B226-5F04-4C79-A352-BB45EDCF0627}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527E02-20DC-4E69-B40D-C48FE0D27F6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6AE3E2-2103-4950-8DB6-134F98C3AC87}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{302E9634-3CA6-4712-9B37-5E44B12BA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CD6E11-B8D8-40EE-BC0E-3DA5F2F5DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64D2B226-5F04-4C79-A352-BB45EDCF0627}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5D8EBD4-4CBE-4003-944E-7416B7463536}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>34,48%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>45,28%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,364 +104,367 @@
     <t>30,19%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>25,03%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>25,44%</t>
   </si>
   <si>
-    <t>22,49%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>5,3%</t>
   </si>
   <si>
     <t>1,01%</t>
@@ -470,148 +473,151 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,46%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>31,24%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,97%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6AE3E2-2103-4950-8DB6-134F98C3AC87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3317271F-627F-4B7E-AC41-6D235C6BE163}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1521,7 +1527,7 @@
         <v>1128</v>
       </c>
       <c r="I11" s="7">
-        <v>791685</v>
+        <v>791686</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1725,7 +1731,7 @@
         <v>2913</v>
       </c>
       <c r="I15" s="7">
-        <v>2243998</v>
+        <v>2243999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1766,13 +1772,13 @@
         <v>205810</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -1781,13 +1787,13 @@
         <v>203290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>533</v>
@@ -1796,13 +1802,13 @@
         <v>409101</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1823,13 @@
         <v>249182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -1832,13 +1838,13 @@
         <v>300064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -1847,13 +1853,13 @@
         <v>549246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1874,13 @@
         <v>180398</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>234</v>
@@ -1883,13 +1889,13 @@
         <v>181583</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>402</v>
@@ -1898,13 +1904,13 @@
         <v>361981</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1925,13 @@
         <v>29956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -1934,13 +1940,13 @@
         <v>24042</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -1949,13 +1955,13 @@
         <v>53998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1976,13 @@
         <v>6814</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1985,13 +1991,13 @@
         <v>4907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -2000,13 +2006,13 @@
         <v>11721</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,28 +2080,28 @@
         <v>859518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1739</v>
       </c>
       <c r="I22" s="7">
-        <v>1180459</v>
+        <v>1180458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>2727</v>
@@ -2104,13 +2110,13 @@
         <v>2039977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2131,13 @@
         <v>1063214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>1938</v>
@@ -2140,13 +2146,13 @@
         <v>1319138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>3054</v>
@@ -2155,13 +2161,13 @@
         <v>2382352</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2182,13 @@
         <v>1072694</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>1391</v>
@@ -2191,13 +2197,13 @@
         <v>1060875</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>2380</v>
@@ -2206,13 +2212,13 @@
         <v>2133569</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2233,13 @@
         <v>238016</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>211</v>
@@ -2242,13 +2248,13 @@
         <v>180206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>406</v>
@@ -2257,13 +2263,13 @@
         <v>418222</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2284,13 @@
         <v>138851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -2293,13 +2299,13 @@
         <v>50135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -2308,13 +2314,13 @@
         <v>188986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2347,7 @@
         <v>5338</v>
       </c>
       <c r="I27" s="7">
-        <v>3790813</v>
+        <v>3790812</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CD6E11-B8D8-40EE-BC0E-3DA5F2F5DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B2294E0-AFF4-45DD-A495-6465684A0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5D8EBD4-4CBE-4003-944E-7416B7463536}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1E1BD045-DB45-4F94-AF99-6DE97E0FD50E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -71,151 +71,151 @@
     <t>Nunca o casi nunca</t>
   </si>
   <si>
-    <t>34,48%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>31,03%</t>
   </si>
   <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>22,2%</t>
   </si>
   <si>
     <t>19,99%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>A diario</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,400 +224,403 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3317271F-627F-4B7E-AC41-6D235C6BE163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30548EA-B609-4F17-9C71-25DEB1030247}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,7 +1156,7 @@
         <v>280</v>
       </c>
       <c r="D4" s="7">
-        <v>186041</v>
+        <v>176217</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1168,7 +1171,7 @@
         <v>677</v>
       </c>
       <c r="I4" s="7">
-        <v>377136</v>
+        <v>341004</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1183,7 +1186,7 @@
         <v>957</v>
       </c>
       <c r="N4" s="7">
-        <v>563177</v>
+        <v>517221</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1204,7 +1207,7 @@
         <v>197</v>
       </c>
       <c r="D5" s="7">
-        <v>162888</v>
+        <v>152254</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1219,7 +1222,7 @@
         <v>389</v>
       </c>
       <c r="I5" s="7">
-        <v>227388</v>
+        <v>205788</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1234,7 +1237,7 @@
         <v>586</v>
       </c>
       <c r="N5" s="7">
-        <v>390276</v>
+        <v>358042</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1255,7 +1258,7 @@
         <v>154</v>
       </c>
       <c r="D6" s="7">
-        <v>138358</v>
+        <v>137025</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1270,7 +1273,7 @@
         <v>296</v>
       </c>
       <c r="I6" s="7">
-        <v>184982</v>
+        <v>167091</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1285,7 +1288,7 @@
         <v>450</v>
       </c>
       <c r="N6" s="7">
-        <v>323340</v>
+        <v>304116</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1306,7 +1309,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>33316</v>
+        <v>30337</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1321,7 +1324,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>37441</v>
+        <v>33580</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1336,7 +1339,7 @@
         <v>86</v>
       </c>
       <c r="N7" s="7">
-        <v>70758</v>
+        <v>63917</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1357,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>18992</v>
+        <v>17185</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1372,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>5981</v>
+        <v>5219</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1387,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>24972</v>
+        <v>22404</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1408,7 +1411,7 @@
         <v>688</v>
       </c>
       <c r="D9" s="7">
-        <v>539596</v>
+        <v>513018</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1423,7 +1426,7 @@
         <v>1421</v>
       </c>
       <c r="I9" s="7">
-        <v>832928</v>
+        <v>752682</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1438,7 +1441,7 @@
         <v>2109</v>
       </c>
       <c r="N9" s="7">
-        <v>1372523</v>
+        <v>1265700</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1461,7 +1464,7 @@
         <v>490</v>
       </c>
       <c r="D10" s="7">
-        <v>467667</v>
+        <v>443970</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1476,7 +1479,7 @@
         <v>747</v>
       </c>
       <c r="I10" s="7">
-        <v>600032</v>
+        <v>651539</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1491,7 +1494,7 @@
         <v>1237</v>
       </c>
       <c r="N10" s="7">
-        <v>1067699</v>
+        <v>1095509</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1512,7 +1515,7 @@
         <v>657</v>
       </c>
       <c r="D11" s="7">
-        <v>651144</v>
+        <v>627015</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1527,7 +1530,7 @@
         <v>1128</v>
       </c>
       <c r="I11" s="7">
-        <v>791686</v>
+        <v>719692</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1542,7 +1545,7 @@
         <v>1785</v>
       </c>
       <c r="N11" s="7">
-        <v>1442830</v>
+        <v>1346707</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1563,7 +1566,7 @@
         <v>667</v>
       </c>
       <c r="D12" s="7">
-        <v>753938</v>
+        <v>751563</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1578,7 +1581,7 @@
         <v>861</v>
       </c>
       <c r="I12" s="7">
-        <v>694310</v>
+        <v>723070</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1593,7 +1596,7 @@
         <v>1528</v>
       </c>
       <c r="N12" s="7">
-        <v>1448248</v>
+        <v>1474633</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1614,7 +1617,7 @@
         <v>133</v>
       </c>
       <c r="D13" s="7">
-        <v>174743</v>
+        <v>169014</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -1629,7 +1632,7 @@
         <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>118723</v>
+        <v>104460</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -1644,7 +1647,7 @@
         <v>266</v>
       </c>
       <c r="N13" s="7">
-        <v>293466</v>
+        <v>273473</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -1665,7 +1668,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>113045</v>
+        <v>297134</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -1680,7 +1683,7 @@
         <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>39247</v>
+        <v>33848</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -1689,22 +1692,22 @@
         <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>152293</v>
+        <v>330982</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1719,7 @@
         <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>2160538</v>
+        <v>2288697</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1731,7 +1734,7 @@
         <v>2913</v>
       </c>
       <c r="I15" s="7">
-        <v>2243999</v>
+        <v>2232608</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1746,7 +1749,7 @@
         <v>4904</v>
       </c>
       <c r="N15" s="7">
-        <v>4404536</v>
+        <v>4521305</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1769,46 +1772,46 @@
         <v>218</v>
       </c>
       <c r="D16" s="7">
-        <v>205810</v>
+        <v>195345</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
       </c>
       <c r="I16" s="7">
-        <v>203290</v>
+        <v>186654</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>533</v>
       </c>
       <c r="N16" s="7">
-        <v>409101</v>
+        <v>381998</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,46 +1823,46 @@
         <v>262</v>
       </c>
       <c r="D17" s="7">
-        <v>249182</v>
+        <v>237018</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
       </c>
       <c r="I17" s="7">
-        <v>300064</v>
+        <v>275573</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
       </c>
       <c r="N17" s="7">
-        <v>549246</v>
+        <v>512591</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,46 +1874,46 @@
         <v>168</v>
       </c>
       <c r="D18" s="7">
-        <v>180398</v>
+        <v>180160</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>234</v>
       </c>
       <c r="I18" s="7">
-        <v>181583</v>
+        <v>172113</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>402</v>
       </c>
       <c r="N18" s="7">
-        <v>361981</v>
+        <v>352274</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,46 +1925,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>29956</v>
+        <v>27292</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>24042</v>
+        <v>21811</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>53998</v>
+        <v>49103</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,46 +1976,46 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>6814</v>
+        <v>5974</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>4907</v>
+        <v>4313</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>11721</v>
+        <v>10286</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,7 +2027,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>672160</v>
+        <v>645789</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2039,7 +2042,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2054,7 +2057,7 @@
         <v>1684</v>
       </c>
       <c r="N21" s="7">
-        <v>1386046</v>
+        <v>1306252</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2077,40 +2080,40 @@
         <v>988</v>
       </c>
       <c r="D22" s="7">
-        <v>859518</v>
+        <v>815532</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1739</v>
       </c>
       <c r="I22" s="7">
-        <v>1180458</v>
+        <v>1179196</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>2727</v>
       </c>
       <c r="N22" s="7">
-        <v>2039977</v>
+        <v>1994728</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>158</v>
@@ -2128,7 +2131,7 @@
         <v>1116</v>
       </c>
       <c r="D23" s="7">
-        <v>1063214</v>
+        <v>1016288</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>160</v>
@@ -2143,7 +2146,7 @@
         <v>1938</v>
       </c>
       <c r="I23" s="7">
-        <v>1319138</v>
+        <v>1201053</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>163</v>
@@ -2158,7 +2161,7 @@
         <v>3054</v>
       </c>
       <c r="N23" s="7">
-        <v>2382352</v>
+        <v>2217341</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>166</v>
@@ -2179,7 +2182,7 @@
         <v>989</v>
       </c>
       <c r="D24" s="7">
-        <v>1072694</v>
+        <v>1068748</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>169</v>
@@ -2194,7 +2197,7 @@
         <v>1391</v>
       </c>
       <c r="I24" s="7">
-        <v>1060875</v>
+        <v>1062274</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>172</v>
@@ -2209,7 +2212,7 @@
         <v>2380</v>
       </c>
       <c r="N24" s="7">
-        <v>2133569</v>
+        <v>2131023</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>175</v>
@@ -2230,7 +2233,7 @@
         <v>195</v>
       </c>
       <c r="D25" s="7">
-        <v>238016</v>
+        <v>226642</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>178</v>
@@ -2245,7 +2248,7 @@
         <v>211</v>
       </c>
       <c r="I25" s="7">
-        <v>180206</v>
+        <v>159851</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>181</v>
@@ -2260,7 +2263,7 @@
         <v>406</v>
       </c>
       <c r="N25" s="7">
-        <v>418222</v>
+        <v>386493</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>184</v>
@@ -2269,7 +2272,7 @@
         <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,46 +2284,46 @@
         <v>71</v>
       </c>
       <c r="D26" s="7">
-        <v>138851</v>
+        <v>320293</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
       </c>
       <c r="I26" s="7">
-        <v>50135</v>
+        <v>43380</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
       </c>
       <c r="N26" s="7">
-        <v>188986</v>
+        <v>363673</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2335,7 @@
         <v>3359</v>
       </c>
       <c r="D27" s="7">
-        <v>3372293</v>
+        <v>3447504</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2347,7 +2350,7 @@
         <v>5338</v>
       </c>
       <c r="I27" s="7">
-        <v>3790812</v>
+        <v>3645753</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2362,7 +2365,7 @@
         <v>8697</v>
       </c>
       <c r="N27" s="7">
-        <v>7163106</v>
+        <v>7093257</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2376,7 +2379,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
